--- a/src/main/webapp/uploadFiles/file/Stock_limit_info.xlsx
+++ b/src/main/webapp/uploadFiles/file/Stock_limit_info.xlsx
@@ -2,17 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vincent-s.shen\Desktop\EY HIVE\40 功能设计\01_底稿输出\H-旗下基金\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liuzengzhen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9225"/>
   </bookViews>
   <sheets>
-    <sheet name="DETAIL" sheetId="1" r:id="rId1"/>
+    <sheet name="DETAIL" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,60 +24,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>期末交易状态</t>
+  </si>
   <si>
     <t>yyyymmdd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>非公开N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>公司代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>期间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期末交易状态</t>
-  </si>
-  <si>
-    <t>股票代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认购日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可流通日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Createdby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReviewedBY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基金代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>货基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>科目代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>债券代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>子类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易市场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,14 +77,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>成功认购日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>认购价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可流通日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停牌日期</t>
+  </si>
+  <si>
+    <t>停牌原因</t>
+  </si>
+  <si>
+    <t>复牌日期</t>
+  </si>
+  <si>
+    <t>复牌开盘单价</t>
+  </si>
+  <si>
+    <t>Createdby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewedBY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,18 +135,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,11 +157,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -155,7 +166,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -171,7 +182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -434,77 +445,93 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/webapp/uploadFiles/file/Stock_limit_info.xlsx
+++ b/src/main/webapp/uploadFiles/file/Stock_limit_info.xlsx
@@ -2,17 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liuzengzhen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vincent-s.shen\Desktop\EY HIVE\40 功能设计\01_底稿输出\H-旗下基金\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9225"/>
   </bookViews>
   <sheets>
-    <sheet name="DETAIL" sheetId="4" r:id="rId1"/>
+    <sheet name="DETAIL" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,24 +24,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>yyyymmdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>期末交易状态</t>
   </si>
   <si>
-    <t>yyyymmdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非公开N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司代码</t>
+    <t>股票代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认购日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可流通日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Createdby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewedBY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -49,27 +69,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>货基</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>科目代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>债券代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>债券名称</t>
+    <t>子类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>交易市场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -77,18 +85,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>成功认购日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>认购价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可流通日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>停牌日期</t>
   </si>
   <si>
@@ -99,20 +99,12 @@
   </si>
   <si>
     <t>复牌开盘单价</t>
-  </si>
-  <si>
-    <t>Createdby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReviewedBY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,12 +127,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -157,16 +155,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -182,7 +183,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -445,93 +446,89 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>